--- a/biology/Histoire de la zoologie et de la botanique/Roger_Engel/Roger_Engel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roger_Engel/Roger_Engel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Engel, né le 11 août 1923 à Talange et mort le 24 janvier 2018 à Haguenau[1], est un enseignant, naturaliste, archéologue et écrivain français, collaborateur actif de la Société d'histoire et d'archéologie de Saverne et environs, du Jardin botanique du col de Saverne et de l'Herbier de l'université de Strasbourg, grand connaisseur des Vosges septentrionales gréseuses[2] et spécialiste des orchidées de France et d'Europe[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Engel, né le 11 août 1923 à Talange et mort le 24 janvier 2018 à Haguenau, est un enseignant, naturaliste, archéologue et écrivain français, collaborateur actif de la Société d'histoire et d'archéologie de Saverne et environs, du Jardin botanique du col de Saverne et de l'Herbier de l'université de Strasbourg, grand connaisseur des Vosges septentrionales gréseuses et spécialiste des orchidées de France et d'Europe.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur des noms d'espèces (microespèces) suivantes dans le groupe des renoncules tête d’or (Ranunculus auricomus aggr.):
 Ranunculus nicklesi (R. Engel) Borch.‑Kolb
 Ranunculus lucorum (R. Engel) Borch.‑Kolb
 Ranunculus geissertii R. Engel ex Dunkel
 Ophrys fuciflora subsp. elatior (Gumprecht ex H.F. Paulus) Engel &amp; H.F. Quentin 1997 ; synonyme Ophrys fuciflora subsp. elatior (Paulus) R. Engel &amp; Quentin 1997
-La Renoncule Ranunculus engelianus Dunkel est nommée en son honneur[4].
+La Renoncule Ranunculus engelianus Dunkel est nommée en son honneur.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L’espèce collective Ranunculus auricomus L. dans l’est de la France, 1967[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’espèce collective Ranunculus auricomus L. dans l’est de la France, 1967
 Croix rurales anciennes des environs de Saverne et du Kochersberg, Société d'histoire et d'archéologie de Saverne et environs, Saverne, 1974 (en collab.)
 Cartographie des orchidées du Bas Rhin et Haut Rhin (Alsace et Vosges), Société Française d’Orchidophilie, Paris, 1985, 36 p.
 Clé des Ophrys de la flore de France, Société française d'orchidophilie, 1991
